--- a/BAN_Player_Data.xlsx
+++ b/BAN_Player_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Misc\Machine_Deep_Learning\Cricket_Scout\Team_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Misc\Machine_Deep_Learning\Cricket_Scout\main\MatchConRep\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="176">
   <si>
     <t>Name</t>
   </si>
@@ -338,9 +338,6 @@
     <t>2018-</t>
   </si>
   <si>
-    <t>117*</t>
-  </si>
-  <si>
     <t>1/10</t>
   </si>
   <si>
@@ -377,12 +374,6 @@
     <t>15/07/2002</t>
   </si>
   <si>
-    <t>6*</t>
-  </si>
-  <si>
-    <t>0/4</t>
-  </si>
-  <si>
     <t>Rony Talukdar*</t>
   </si>
   <si>
@@ -503,9 +494,6 @@
     <t>01/12/2000</t>
   </si>
   <si>
-    <t>51*</t>
-  </si>
-  <si>
     <t>Tanzim Hasan Sakib*</t>
   </si>
   <si>
@@ -539,9 +527,6 @@
     <t>04/12/2000</t>
   </si>
   <si>
-    <t>92*</t>
-  </si>
-  <si>
     <t>Yasir Ali*</t>
   </si>
   <si>
@@ -573,6 +558,15 @@
   </si>
   <si>
     <t>Total Players = 34</t>
+  </si>
+  <si>
+    <t>1/51</t>
+  </si>
+  <si>
+    <t>84*</t>
+  </si>
+  <si>
+    <t>18*</t>
   </si>
 </sst>
 </file>
@@ -1024,13 +1018,13 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>1340</v>
+        <v>1352</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1039,7 +1033,7 @@
         <v>24</v>
       </c>
       <c r="J3">
-        <v>29.78</v>
+        <v>29.39</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1209,10 +1203,10 @@
         <v>46</v>
       </c>
       <c r="E7">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F7">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G7">
         <v>2563</v>
@@ -1224,7 +1218,7 @@
         <v>47</v>
       </c>
       <c r="J7">
-        <v>32.04</v>
+        <v>31.26</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1300,13 +1294,13 @@
         <v>55</v>
       </c>
       <c r="E9">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F9">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G9">
-        <v>5348</v>
+        <v>5386</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1315,7 +1309,7 @@
         <v>128</v>
       </c>
       <c r="J9">
-        <v>36.14</v>
+        <v>35.67</v>
       </c>
       <c r="K9">
         <v>82</v>
@@ -1347,13 +1341,13 @@
         <v>60</v>
       </c>
       <c r="E10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G10">
-        <v>1294</v>
+        <v>1331</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1362,19 +1356,19 @@
         <v>112</v>
       </c>
       <c r="J10">
-        <v>23.53</v>
+        <v>23.35</v>
       </c>
       <c r="K10">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L10">
         <v>5</v>
       </c>
       <c r="M10">
-        <v>34.96</v>
+        <v>34.86</v>
       </c>
       <c r="N10">
-        <v>4.8499999999999996</v>
+        <v>4.83</v>
       </c>
       <c r="O10" t="s">
         <v>61</v>
@@ -1626,13 +1620,13 @@
         <v>88</v>
       </c>
       <c r="E16">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F16">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G16">
-        <v>7657</v>
+        <v>7792</v>
       </c>
       <c r="H16">
         <v>9</v>
@@ -1641,7 +1635,7 @@
         <v>89</v>
       </c>
       <c r="J16">
-        <v>36.46</v>
+        <v>36.93</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1670,7 +1664,7 @@
         <v>46</v>
       </c>
       <c r="E17">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F17">
         <v>51</v>
@@ -1688,16 +1682,16 @@
         <v>7.27</v>
       </c>
       <c r="K17">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L17">
         <v>10</v>
       </c>
       <c r="M17">
-        <v>26.35</v>
+        <v>26.26</v>
       </c>
       <c r="N17">
-        <v>5.18</v>
+        <v>5.17</v>
       </c>
       <c r="O17" t="s">
         <v>94</v>
@@ -1717,22 +1711,22 @@
         <v>98</v>
       </c>
       <c r="E18">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F18">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G18">
-        <v>1202</v>
+        <v>1365</v>
       </c>
       <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18" t="s">
-        <v>99</v>
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>122</v>
       </c>
       <c r="J18">
-        <v>30.82</v>
+        <v>33.29</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1747,18 +1741,18 @@
         <v>5.63</v>
       </c>
       <c r="O18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
         <v>101</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>102</v>
-      </c>
-      <c r="C19" t="s">
-        <v>103</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
@@ -1776,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J19">
         <v>22.29</v>
@@ -1794,18 +1788,18 @@
         <v>4.54</v>
       </c>
       <c r="O19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
         <v>106</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>107</v>
-      </c>
-      <c r="C20" t="s">
-        <v>108</v>
       </c>
       <c r="D20" t="s">
         <v>78</v>
@@ -1843,60 +1837,60 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
         <v>109</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>110</v>
-      </c>
-      <c r="C21" t="s">
-        <v>111</v>
       </c>
       <c r="D21" t="s">
         <v>40</v>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="G21">
+        <v>54</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>48</v>
+      </c>
+      <c r="J21">
+        <v>54</v>
+      </c>
+      <c r="K21">
         <v>1</v>
       </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21">
-        <v>6</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" t="s">
-        <v>25</v>
+      <c r="M21">
+        <v>117</v>
       </c>
       <c r="N21">
-        <v>5.35</v>
+        <v>5.48</v>
       </c>
       <c r="O21" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
@@ -1914,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -1934,16 +1928,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
         <v>118</v>
-      </c>
-      <c r="B23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" t="s">
-        <v>121</v>
       </c>
       <c r="E23">
         <v>104</v>
@@ -1958,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J23">
         <v>4.97</v>
@@ -1976,18 +1970,18 @@
         <v>5.68</v>
       </c>
       <c r="O23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
         <v>88</v>
@@ -2023,18 +2017,18 @@
         <v>4.47</v>
       </c>
       <c r="O24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
         <v>40</v>
@@ -2052,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J25">
         <v>8.25</v>
@@ -2070,24 +2064,24 @@
         <v>9</v>
       </c>
       <c r="O25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
         <v>34</v>
       </c>
       <c r="E26">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F26">
         <v>20</v>
@@ -2099,89 +2093,89 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J26">
         <v>7.55</v>
       </c>
       <c r="K26">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L26">
         <v>3</v>
       </c>
       <c r="M26">
-        <v>26.67</v>
+        <v>27.05</v>
       </c>
       <c r="N26">
-        <v>5.54</v>
+        <v>5.53</v>
       </c>
       <c r="O26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
         <v>65</v>
       </c>
       <c r="E27">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F27">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G27">
-        <v>1941</v>
+        <v>2012</v>
       </c>
       <c r="H27">
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J27">
-        <v>33.47</v>
+        <v>33.53</v>
       </c>
       <c r="K27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="N27">
-        <v>5.99</v>
+        <v>5.9</v>
       </c>
       <c r="O27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
         <v>65</v>
       </c>
       <c r="E28">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F28">
         <v>12</v>
@@ -2199,30 +2193,30 @@
         <v>11</v>
       </c>
       <c r="K28">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L28">
         <v>2</v>
       </c>
       <c r="M28">
-        <v>23.6</v>
+        <v>25.97</v>
       </c>
       <c r="N28">
-        <v>4.37</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D29" t="s">
         <v>55</v>
@@ -2240,7 +2234,7 @@
         <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J29">
         <v>36.65</v>
@@ -2258,39 +2252,39 @@
         <v>13</v>
       </c>
       <c r="O29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
       </c>
       <c r="E30">
+        <v>15</v>
+      </c>
+      <c r="F30">
         <v>14</v>
       </c>
-      <c r="F30">
-        <v>13</v>
-      </c>
       <c r="G30">
-        <v>179</v>
+        <v>263</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="J30">
-        <v>13.77</v>
+        <v>18.79</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2307,128 +2301,128 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D31" t="s">
         <v>40</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>14</v>
+      <c r="I31" t="s">
+        <v>175</v>
       </c>
       <c r="J31">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>25.25</v>
+        <v>25.92</v>
       </c>
       <c r="N31">
-        <v>5.53</v>
+        <v>5.64</v>
       </c>
       <c r="O31" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F32">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G32">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J32">
-        <v>7.37</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="K32">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L32">
         <v>6</v>
       </c>
       <c r="M32">
-        <v>30.92</v>
+        <v>29.98</v>
       </c>
       <c r="N32">
-        <v>5.43</v>
+        <v>5.41</v>
       </c>
       <c r="O32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D33" t="s">
         <v>40</v>
       </c>
       <c r="E33">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F33">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G33">
-        <v>727</v>
+        <v>848</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" t="s">
-        <v>166</v>
+      <c r="I33">
+        <v>96</v>
       </c>
       <c r="J33">
-        <v>34.619999999999997</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2439,19 +2433,22 @@
       <c r="M33" t="s">
         <v>25</v>
       </c>
-      <c r="N33" t="s">
-        <v>25</v>
+      <c r="N33">
+        <v>12</v>
+      </c>
+      <c r="O33" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D34" t="s">
         <v>29</v>
@@ -2469,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="J34">
         <v>14.57</v>
@@ -2487,21 +2484,21 @@
         <v>2</v>
       </c>
       <c r="O34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -2534,12 +2531,12 @@
         <v>8.5</v>
       </c>
       <c r="O35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/BAN_Player_Data.xlsx
+++ b/BAN_Player_Data.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PlayerCountryList.asp?Country_BAN_Comp_O_Current_T" localSheetId="0">Sheet1!$A$1:$P$36</definedName>
+    <definedName name="PlayerCountryList.asp?Country_BAN_Comp_O_Current_T" localSheetId="0">Sheet1!$A$1:$P$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="170">
   <si>
     <t>Name</t>
   </si>
@@ -386,24 +386,6 @@
     <t>4*</t>
   </si>
   <si>
-    <t>Rubel Hossain*</t>
-  </si>
-  <si>
-    <t>Rubel Hossain</t>
-  </si>
-  <si>
-    <t>01/01/1990</t>
-  </si>
-  <si>
-    <t>2009-</t>
-  </si>
-  <si>
-    <t>17*</t>
-  </si>
-  <si>
-    <t>6/26</t>
-  </si>
-  <si>
     <t>Shakib Al Hasan*</t>
   </si>
   <si>
@@ -557,9 +539,6 @@
     <t>0/17</t>
   </si>
   <si>
-    <t>Total Players = 34</t>
-  </si>
-  <si>
     <t>1/51</t>
   </si>
   <si>
@@ -567,6 +546,9 @@
   </si>
   <si>
     <t>18*</t>
+  </si>
+  <si>
+    <t>Total Players = 33</t>
   </si>
 </sst>
 </file>
@@ -888,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1879,7 +1861,7 @@
         <v>5.48</v>
       </c>
       <c r="O21" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1937,307 +1919,307 @@
         <v>117</v>
       </c>
       <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23">
+        <v>247</v>
+      </c>
+      <c r="F23">
+        <v>234</v>
+      </c>
+      <c r="G23">
+        <v>7570</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <v>134</v>
+      </c>
+      <c r="J23">
+        <v>37.29</v>
+      </c>
+      <c r="K23">
+        <v>317</v>
+      </c>
+      <c r="L23">
+        <v>14</v>
+      </c>
+      <c r="M23">
+        <v>29.53</v>
+      </c>
+      <c r="N23">
+        <v>4.47</v>
+      </c>
+      <c r="O23" t="s">
         <v>118</v>
-      </c>
-      <c r="E23">
-        <v>104</v>
-      </c>
-      <c r="F23">
-        <v>53</v>
-      </c>
-      <c r="G23">
-        <v>144</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>119</v>
-      </c>
-      <c r="J23">
-        <v>4.97</v>
-      </c>
-      <c r="K23">
-        <v>129</v>
-      </c>
-      <c r="L23">
-        <v>8</v>
-      </c>
-      <c r="M23">
-        <v>34.32</v>
-      </c>
-      <c r="N23">
-        <v>5.68</v>
-      </c>
-      <c r="O23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
         <v>121</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>33</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
         <v>122</v>
       </c>
-      <c r="C24" t="s">
+      <c r="J24">
+        <v>8.25</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>9</v>
+      </c>
+      <c r="O24" t="s">
         <v>123</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24">
-        <v>247</v>
-      </c>
-      <c r="F24">
-        <v>234</v>
-      </c>
-      <c r="G24">
-        <v>7570</v>
-      </c>
-      <c r="H24">
-        <v>9</v>
-      </c>
-      <c r="I24">
-        <v>134</v>
-      </c>
-      <c r="J24">
-        <v>37.29</v>
-      </c>
-      <c r="K24">
-        <v>317</v>
-      </c>
-      <c r="L24">
-        <v>14</v>
-      </c>
-      <c r="M24">
-        <v>29.53</v>
-      </c>
-      <c r="N24">
-        <v>4.47</v>
-      </c>
-      <c r="O24" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
         <v>125</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>126</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25">
+        <v>36</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>83</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25">
+        <v>7.55</v>
+      </c>
+      <c r="K25">
+        <v>56</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>27.05</v>
+      </c>
+      <c r="N25">
+        <v>5.53</v>
+      </c>
+      <c r="O25" t="s">
         <v>127</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>33</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>128</v>
-      </c>
-      <c r="J25">
-        <v>8.25</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25">
-        <v>9</v>
-      </c>
-      <c r="O25" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
         <v>130</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26">
+        <v>69</v>
+      </c>
+      <c r="F26">
+        <v>64</v>
+      </c>
+      <c r="G26">
+        <v>2012</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
         <v>131</v>
       </c>
-      <c r="C26" t="s">
+      <c r="J26">
+        <v>33.53</v>
+      </c>
+      <c r="K26">
+        <v>15</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>35</v>
+      </c>
+      <c r="N26">
+        <v>5.9</v>
+      </c>
+      <c r="O26" t="s">
         <v>132</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26">
-        <v>36</v>
-      </c>
-      <c r="F26">
-        <v>20</v>
-      </c>
-      <c r="G26">
-        <v>83</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>128</v>
-      </c>
-      <c r="J26">
-        <v>7.55</v>
-      </c>
-      <c r="K26">
-        <v>56</v>
-      </c>
-      <c r="L26">
-        <v>3</v>
-      </c>
-      <c r="M26">
-        <v>27.05</v>
-      </c>
-      <c r="N26">
-        <v>5.53</v>
-      </c>
-      <c r="O26" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s">
         <v>134</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>135</v>
-      </c>
-      <c r="C27" t="s">
-        <v>136</v>
       </c>
       <c r="D27" t="s">
         <v>65</v>
       </c>
       <c r="E27">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="F27">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G27">
-        <v>2012</v>
+        <v>110</v>
       </c>
       <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27" t="s">
-        <v>137</v>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>39</v>
       </c>
       <c r="J27">
-        <v>33.53</v>
+        <v>11</v>
       </c>
       <c r="K27">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>25.97</v>
       </c>
       <c r="N27">
-        <v>5.9</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" t="s">
         <v>139</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28">
+        <v>243</v>
+      </c>
+      <c r="F28">
+        <v>240</v>
+      </c>
+      <c r="G28">
+        <v>8357</v>
+      </c>
+      <c r="H28">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
         <v>140</v>
       </c>
-      <c r="C28" t="s">
+      <c r="J28">
+        <v>36.65</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28">
+        <v>13</v>
+      </c>
+      <c r="O28" t="s">
         <v>141</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28">
-        <v>20</v>
-      </c>
-      <c r="F28">
-        <v>12</v>
-      </c>
-      <c r="G28">
-        <v>110</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>39</v>
-      </c>
-      <c r="J28">
-        <v>11</v>
-      </c>
-      <c r="K28">
-        <v>31</v>
-      </c>
-      <c r="L28">
-        <v>2</v>
-      </c>
-      <c r="M28">
-        <v>25.97</v>
-      </c>
-      <c r="N28">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="O28" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
         <v>143</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>144</v>
       </c>
-      <c r="C29" t="s">
-        <v>145</v>
-      </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E29">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="F29">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="G29">
-        <v>8357</v>
+        <v>263</v>
       </c>
       <c r="H29">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="J29">
-        <v>36.65</v>
+        <v>18.79</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2248,181 +2230,181 @@
       <c r="M29" t="s">
         <v>25</v>
       </c>
-      <c r="N29">
-        <v>13</v>
-      </c>
-      <c r="O29" t="s">
-        <v>147</v>
+      <c r="N29" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>263</v>
+        <v>50</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J30">
-        <v>18.79</v>
+        <v>25</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" t="s">
-        <v>25</v>
+      <c r="M30">
+        <v>25.92</v>
+      </c>
+      <c r="N30">
+        <v>5.64</v>
+      </c>
+      <c r="O30" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" t="s">
         <v>151</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31">
+        <v>73</v>
+      </c>
+      <c r="F31">
+        <v>39</v>
+      </c>
+      <c r="G31">
+        <v>217</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
         <v>152</v>
       </c>
-      <c r="C31" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31">
-        <v>7</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31">
-        <v>50</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>175</v>
-      </c>
       <c r="J31">
-        <v>25</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="K31">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M31">
-        <v>25.92</v>
+        <v>29.98</v>
       </c>
       <c r="N31">
-        <v>5.64</v>
+        <v>5.41</v>
       </c>
       <c r="O31" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" t="s">
         <v>155</v>
       </c>
-      <c r="B32" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" t="s">
-        <v>157</v>
-      </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E32">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="F32">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G32">
-        <v>217</v>
+        <v>848</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" t="s">
-        <v>158</v>
+      <c r="I32">
+        <v>96</v>
       </c>
       <c r="J32">
-        <v>8.0399999999999991</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="K32">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>6</v>
-      </c>
-      <c r="M32">
-        <v>29.98</v>
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>25</v>
       </c>
       <c r="N32">
-        <v>5.41</v>
+        <v>12</v>
       </c>
       <c r="O32" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>102</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
         <v>159</v>
       </c>
-      <c r="B33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33">
-        <v>30</v>
-      </c>
-      <c r="F33">
-        <v>26</v>
-      </c>
-      <c r="G33">
-        <v>848</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>96</v>
-      </c>
       <c r="J33">
-        <v>36.869999999999997</v>
+        <v>14.57</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2434,42 +2416,42 @@
         <v>25</v>
       </c>
       <c r="N33">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O33" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" t="s">
         <v>162</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>163</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>164</v>
       </c>
-      <c r="D34" t="s">
-        <v>29</v>
-      </c>
       <c r="E34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="J34">
-        <v>14.57</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2481,62 +2463,15 @@
         <v>25</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="O34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" t="s">
         <v>169</v>
-      </c>
-      <c r="D35" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35">
-        <v>8.5</v>
-      </c>
-      <c r="O35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
